--- a/biology/Microbiologie/Kinétoplastidé/Kinétoplastidé.xlsx
+++ b/biology/Microbiologie/Kinétoplastidé/Kinétoplastidé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kin%C3%A9toplastid%C3%A9</t>
+          <t>Kinétoplastidé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kinetoplastida
 Les Kinétoplastidés (Kinetoplastida) sont des protistes munis de flagelles locomoteurs. Avec les Euglénophytes et les Pseudociliés, les Kinétoplastidés forment le clade des Euglénobiontes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kin%C3%A9toplastid%C3%A9</t>
+          <t>Kinétoplastidé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Kinétoplastidés n'ont qu'une seule mitochondrie très volumineuse qui contient le kinétoplaste formé par de l'ADN (assez abondant, jusqu'à 20 % de l'ADN cellulaire). Le kinétoplaste est en général à la base du flagelle.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kin%C3%A9toplastid%C3%A9</t>
+          <t>Kinétoplastidé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sous-classe des Metakinetoplastina
 ordre des Eubodonida
@@ -551,13 +567,82 @@
 ordre des Parabodonida
 ordre des Trypanosomatida
 Sous-classe des Prokinetoplastina
-ordre des Prokinetoplastida
-Sous-ordres
-Les Kinétoplastidés se divisent en deux sous-ordres : les Trypanosomidés avec une seule flagelle et les bodonidés avec deux flagelles.
+ordre des Prokinetoplastida</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kinétoplastidé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kin%C3%A9toplastid%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-ordres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Kinétoplastidés se divisent en deux sous-ordres : les Trypanosomidés avec une seule flagelle et les bodonidés avec deux flagelles.
 Certains Bodonidés sont indépendants (exemple : Cephalothanium) et d'autres sont parasites (exemple : Cryptobia.)
-Les Trypanososidés sont tous parasites et sont transmis par les animaux tels que les moustiques et les sangsues. Les trypanosomes sont notamment connus comme étant la cause de la maladie du sommeil en étant un parasite du sang des mammifères, son principal vecteur est la mouche tsé-tsé. D'autres espèces de Trypanosomidés provoquent la syphilis équine (T. équiperdum)[1]. Les espèces du genre Leishmania causent la leishmaniose.
-Genres de placement incertain
-Hemistasia
+Les Trypanososidés sont tous parasites et sont transmis par les animaux tels que les moustiques et les sangsues. Les trypanosomes sont notamment connus comme étant la cause de la maladie du sommeil en étant un parasite du sang des mammifères, son principal vecteur est la mouche tsé-tsé. D'autres espèces de Trypanosomidés provoquent la syphilis équine (T. équiperdum). Les espèces du genre Leishmania causent la leishmaniose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kinétoplastidé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kin%C3%A9toplastid%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres de placement incertain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hemistasia
 Klosteria</t>
         </is>
       </c>
